--- a/TSMC.xlsx
+++ b/TSMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee_m\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE439C7-7F96-4FBE-9D99-AFA96BFBB45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95F22DE-4DE0-48CC-846B-B3251A598C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
@@ -1794,10 +1794,10 @@
   <dimension ref="A2:BK55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S47" sqref="S47"/>
+      <selection pane="bottomRight" activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3066,99 +3066,99 @@
       </c>
       <c r="Q37" s="30">
         <f>Q38/32</f>
-        <v>57353.215894702451</v>
+        <v>54697.974418095851</v>
       </c>
       <c r="R37" s="30">
         <f t="shared" ref="R37:AN37" si="28">R38/32</f>
-        <v>61941.473166278651</v>
+        <v>56338.913650638729</v>
       </c>
       <c r="S37" s="30">
         <f t="shared" si="28"/>
-        <v>66896.791019580953</v>
+        <v>58029.081060157892</v>
       </c>
       <c r="T37" s="30">
         <f t="shared" si="28"/>
-        <v>72248.534301147432</v>
+        <v>59769.953491962631</v>
       </c>
       <c r="U37" s="30">
         <f t="shared" si="28"/>
-        <v>78028.417045239228</v>
+        <v>61563.052096721512</v>
       </c>
       <c r="V37" s="30">
         <f t="shared" si="28"/>
-        <v>84270.690408858369</v>
+        <v>63409.943659623161</v>
       </c>
       <c r="W37" s="30">
         <f t="shared" si="28"/>
-        <v>91012.345641567037</v>
+        <v>65312.241969411858</v>
       </c>
       <c r="X37" s="30">
         <f t="shared" si="28"/>
-        <v>98293.333292892406</v>
+        <v>67271.609228494213</v>
       </c>
       <c r="Y37" s="30">
         <f t="shared" si="28"/>
-        <v>106156.79995632381</v>
+        <v>69289.757505349044</v>
       </c>
       <c r="Z37" s="30">
         <f t="shared" si="28"/>
-        <v>114649.34395282973</v>
+        <v>71368.450230509523</v>
       </c>
       <c r="AA37" s="30">
         <f t="shared" si="28"/>
-        <v>123821.29146905612</v>
+        <v>73509.503737424806</v>
       </c>
       <c r="AB37" s="30">
         <f t="shared" si="28"/>
-        <v>133726.99478658062</v>
+        <v>75714.788849547549</v>
       </c>
       <c r="AC37" s="30">
         <f t="shared" si="28"/>
-        <v>144425.15436950707</v>
+        <v>77986.232515033975</v>
       </c>
       <c r="AD37" s="30">
         <f t="shared" si="28"/>
-        <v>155979.16671906764</v>
+        <v>80325.819490484995</v>
       </c>
       <c r="AE37" s="30">
         <f t="shared" si="28"/>
-        <v>168457.50005659307</v>
+        <v>82735.594075199551</v>
       </c>
       <c r="AF37" s="30">
         <f t="shared" si="28"/>
-        <v>181934.10006112052</v>
+        <v>85217.661897455546</v>
       </c>
       <c r="AG37" s="30">
         <f t="shared" si="28"/>
-        <v>196488.82806601017</v>
+        <v>87774.191754379208</v>
       </c>
       <c r="AH37" s="30">
         <f t="shared" si="28"/>
-        <v>212207.934311291</v>
+        <v>90407.417507010585</v>
       </c>
       <c r="AI37" s="30">
         <f t="shared" si="28"/>
-        <v>229184.5690561943</v>
+        <v>93119.640032220908</v>
       </c>
       <c r="AJ37" s="30">
         <f t="shared" si="28"/>
-        <v>247519.33458068987</v>
+        <v>95913.229233187536</v>
       </c>
       <c r="AK37" s="30">
         <f t="shared" si="28"/>
-        <v>267320.88134714507</v>
+        <v>98790.626110183162</v>
       </c>
       <c r="AL37" s="30">
         <f t="shared" si="28"/>
-        <v>288706.55185491667</v>
+        <v>101754.34489348865</v>
       </c>
       <c r="AM37" s="30">
         <f t="shared" si="28"/>
-        <v>311803.07600331004</v>
+        <v>104806.97524029332</v>
       </c>
       <c r="AN37" s="30">
         <f t="shared" si="28"/>
-        <v>336747.32208357484</v>
+        <v>107951.18449750212</v>
       </c>
     </row>
     <row r="38" spans="1:63" x14ac:dyDescent="0.2">
@@ -3224,99 +3224,99 @@
       </c>
       <c r="Q38" s="26">
         <f>P38*(1+$S$40)</f>
-        <v>1835302.9086304784</v>
+        <v>1750335.1813790672</v>
       </c>
       <c r="R38" s="26">
         <f t="shared" ref="R38:AB38" si="31">Q38*(1+$S$40)</f>
-        <v>1982127.1413209168</v>
+        <v>1802845.2368204393</v>
       </c>
       <c r="S38" s="26">
         <f t="shared" si="31"/>
-        <v>2140697.3126265905</v>
+        <v>1856930.5939250526</v>
       </c>
       <c r="T38" s="26">
         <f t="shared" si="31"/>
-        <v>2311953.0976367178</v>
+        <v>1912638.5117428042</v>
       </c>
       <c r="U38" s="26">
         <f t="shared" si="31"/>
-        <v>2496909.3454476553</v>
+        <v>1970017.6670950884</v>
       </c>
       <c r="V38" s="26">
         <f t="shared" si="31"/>
-        <v>2696662.0930834678</v>
+        <v>2029118.1971079411</v>
       </c>
       <c r="W38" s="26">
         <f t="shared" si="31"/>
-        <v>2912395.0605301452</v>
+        <v>2089991.7430211795</v>
       </c>
       <c r="X38" s="26">
         <f t="shared" si="31"/>
-        <v>3145386.665372557</v>
+        <v>2152691.4953118148</v>
       </c>
       <c r="Y38" s="26">
         <f t="shared" si="31"/>
-        <v>3397017.598602362</v>
+        <v>2217272.2401711694</v>
       </c>
       <c r="Z38" s="26">
         <f t="shared" si="31"/>
-        <v>3668779.0064905514</v>
+        <v>2283790.4073763047</v>
       </c>
       <c r="AA38" s="26">
         <f t="shared" si="31"/>
-        <v>3962281.3270097957</v>
+        <v>2352304.1195975938</v>
       </c>
       <c r="AB38" s="26">
         <f t="shared" si="31"/>
-        <v>4279263.8331705797</v>
+        <v>2422873.2431855216</v>
       </c>
       <c r="AC38" s="26">
         <f t="shared" ref="AC38" si="32">AB38*(1+$S$40)</f>
-        <v>4621604.9398242263</v>
+        <v>2495559.4404810872</v>
       </c>
       <c r="AD38" s="26">
         <f t="shared" ref="AD38" si="33">AC38*(1+$S$40)</f>
-        <v>4991333.3350101644</v>
+        <v>2570426.2236955198</v>
       </c>
       <c r="AE38" s="26">
         <f t="shared" ref="AE38" si="34">AD38*(1+$S$40)</f>
-        <v>5390640.0018109782</v>
+        <v>2647539.0104063856</v>
       </c>
       <c r="AF38" s="26">
         <f t="shared" ref="AF38" si="35">AE38*(1+$S$40)</f>
-        <v>5821891.2019558568</v>
+        <v>2726965.1807185775</v>
       </c>
       <c r="AG38" s="26">
         <f t="shared" ref="AG38" si="36">AF38*(1+$S$40)</f>
-        <v>6287642.4981123256</v>
+        <v>2808774.1361401347</v>
       </c>
       <c r="AH38" s="26">
         <f t="shared" ref="AH38" si="37">AG38*(1+$S$40)</f>
-        <v>6790653.897961312</v>
+        <v>2893037.3602243387</v>
       </c>
       <c r="AI38" s="26">
         <f t="shared" ref="AI38" si="38">AH38*(1+$S$40)</f>
-        <v>7333906.2097982178</v>
+        <v>2979828.4810310691</v>
       </c>
       <c r="AJ38" s="26">
         <f t="shared" ref="AJ38" si="39">AI38*(1+$S$40)</f>
-        <v>7920618.7065820759</v>
+        <v>3069223.3354620012</v>
       </c>
       <c r="AK38" s="26">
         <f t="shared" ref="AK38" si="40">AJ38*(1+$S$40)</f>
-        <v>8554268.2031086423</v>
+        <v>3161300.0355258612</v>
       </c>
       <c r="AL38" s="26">
         <f t="shared" ref="AL38" si="41">AK38*(1+$S$40)</f>
-        <v>9238609.6593573336</v>
+        <v>3256139.0365916369</v>
       </c>
       <c r="AM38" s="26">
         <f t="shared" ref="AM38" si="42">AL38*(1+$S$40)</f>
-        <v>9977698.4321059212</v>
+        <v>3353823.2076893863</v>
       </c>
       <c r="AN38" s="26">
         <f t="shared" ref="AN38" si="43">AM38*(1+$S$40)</f>
-        <v>10775914.306674395</v>
+        <v>3454437.9039200679</v>
       </c>
       <c r="AO38" s="26"/>
       <c r="AP38" s="26"/>
@@ -3455,7 +3455,7 @@
         <v>185</v>
       </c>
       <c r="S40" s="7">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="41" spans="1:63" x14ac:dyDescent="0.2">
@@ -3468,7 +3468,7 @@
         <v>186</v>
       </c>
       <c r="S41" s="7">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="42" spans="1:63" x14ac:dyDescent="0.2">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="S43" s="33">
         <f>NPV(S41,I38:BX38)+Main!L5-Main!L6</f>
-        <v>21444060.923387755</v>
+        <v>25498741.258338932</v>
       </c>
     </row>
     <row r="44" spans="1:63" x14ac:dyDescent="0.2">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="S45" s="32">
         <f>S43/S44</f>
-        <v>826.93432528874575</v>
+        <v>983.29250572030435</v>
       </c>
     </row>
     <row r="46" spans="1:63" x14ac:dyDescent="0.2">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="S47" s="31">
         <f>S45/S46-1</f>
-        <v>-0.13137150704963685</v>
+        <v>3.2870279117966694E-2</v>
       </c>
     </row>
     <row r="48" spans="1:63" x14ac:dyDescent="0.2">
